--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davor Nekić\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marin\Desktop\Wavelet-tree-as-RRR-structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>Number of genomes</t>
-  </si>
-  <si>
     <t>Time ( microseconds ) average</t>
   </si>
   <si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>Memory usage ( in KB )</t>
+  </si>
+  <si>
+    <t>Number of nucleobases</t>
   </si>
 </sst>
 </file>
@@ -285,11 +285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452369152"/>
-        <c:axId val="452368368"/>
+        <c:axId val="150455792"/>
+        <c:axId val="216683872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="452369152"/>
+        <c:axId val="150455792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,9 +334,8 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="hr-HR" baseline="0"/>
-                  <a:t> of genomes</a:t>
+                  <a:t> of nucleobases</a:t>
                 </a:r>
-                <a:endParaRPr lang="hr-HR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -407,12 +406,12 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452368368"/>
+        <c:crossAx val="216683872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452368368"/>
+        <c:axId val="216683872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +529,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452369152"/>
+        <c:crossAx val="150455792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -770,11 +769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448862000"/>
-        <c:axId val="448860040"/>
+        <c:axId val="216744080"/>
+        <c:axId val="216746776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448862000"/>
+        <c:axId val="216744080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +814,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="hr-HR"/>
-                  <a:t>Number of genomes</a:t>
+                  <a:t>Number of nucleobases</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -887,12 +886,12 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448860040"/>
+        <c:crossAx val="216746776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448860040"/>
+        <c:axId val="216746776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1009,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448862000"/>
+        <c:crossAx val="216744080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1249,11 +1248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="449498416"/>
-        <c:axId val="448879032"/>
+        <c:axId val="216753824"/>
+        <c:axId val="216360648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="449498416"/>
+        <c:axId val="216753824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1293,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="hr-HR"/>
-                  <a:t>Number of genomes</a:t>
+                  <a:t>Number of nucleobases</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1366,12 +1365,12 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448879032"/>
+        <c:crossAx val="216360648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448879032"/>
+        <c:axId val="216360648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1487,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449498416"/>
+        <c:crossAx val="216753824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1702,11 +1701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383294128"/>
-        <c:axId val="383297264"/>
+        <c:axId val="217308152"/>
+        <c:axId val="217308536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383294128"/>
+        <c:axId val="217308152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,12 +1762,12 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383297264"/>
+        <c:crossAx val="217308536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383297264"/>
+        <c:axId val="217308536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1824,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383294128"/>
+        <c:crossAx val="217308152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4504,7 +4503,7 @@
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,10 +4514,10 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -4596,7 +4595,7 @@
   <dimension ref="D4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,10 +4606,10 @@
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
@@ -4688,7 +4687,7 @@
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,10 +4700,10 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4784,7 @@
   <dimension ref="D3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,10 +4795,10 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
